--- a/tools/SpaceCalc.xlsx
+++ b/tools/SpaceCalc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Development/aerospace/prometheus_unbound/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Development/aerospace/prometheus_unbound/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF05857-08B9-094B-8468-1D1B51DDD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89624C7C-D3B6-7F4A-9956-6B2DEF4102A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14400" xr2:uid="{F4E1B1BE-E6BE-4736-BB82-C5B26D151CF6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="263">
   <si>
     <t>Constants</t>
   </si>
@@ -468,9 +468,6 @@
     <t>Target(Mars)</t>
   </si>
   <si>
-    <t>Origin(Earth)</t>
-  </si>
-  <si>
     <t>v, m/s</t>
   </si>
   <si>
@@ -826,6 +823,15 @@
   </si>
   <si>
     <t>In MW</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Origin(Moon)</t>
+  </si>
+  <si>
+    <t>Total deltaV</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF034C1-A996-4CD3-9FFB-54EC88DD8700}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1381,10 +1387,10 @@
         <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -1458,7 +1464,7 @@
         <v>250</v>
       </c>
       <c r="J3" s="3">
-        <f>I14-G14</f>
+        <f>I15-G15</f>
         <v>2440.0839758003485</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1496,7 +1502,7 @@
         <v>35786</v>
       </c>
       <c r="J4" s="3">
-        <f>H15-I15</f>
+        <f>H16-I16</f>
         <v>1472.0341736129992</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1505,7 +1511,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5">
         <v>324859000000000</v>
@@ -1529,7 +1535,7 @@
         <v>6628137</v>
       </c>
       <c r="J5" s="3">
-        <f>SQRT(I15^2+H15^2-2*H15*I15*COS(RADIANS(I8)))</f>
+        <f>SQRT(I16^2+H16^2-2*H16*I16*COS(RADIANS(I8)))</f>
         <v>1472.0341736129997</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1538,7 +1544,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5">
         <v>1.26686534E+17</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="5">
         <v>3.7931187E+16</v>
@@ -1592,7 +1598,7 @@
         <v>0.72831202743286771</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f xml:space="preserve"> IF(H9/G9&gt;11.94, "Yes","No")</f>
+        <f xml:space="preserve"> IF(H10/G10&gt;11.94, "Yes","No")</f>
         <v>No</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1601,7 +1607,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="5">
         <v>5793939000000000</v>
@@ -1622,395 +1628,419 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5">
         <v>6836529000000000</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B3/81.30057</f>
+        <v>4902800088609.4648</v>
+      </c>
+      <c r="D10">
+        <v>1737400</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f>(G5+G6)/2</f>
         <v>6628137</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f>(H5+H6)/2</f>
         <v>42164137</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f>(I5+I6)/2</f>
         <v>24396137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="F10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3">
-        <f>2*PI()*SQRT(G9^3/B3)/60</f>
+      <c r="G11" s="3">
+        <f>2*PI()*SQRT(G10^3/B3)/60</f>
         <v>89.504927438556066</v>
       </c>
-      <c r="H10" s="3">
-        <f>2*PI()*SQRT(H9^3/B3)/60</f>
+      <c r="H11" s="3">
+        <f>2*PI()*SQRT(H10^3/B3)/60</f>
         <v>1436.0665082861817</v>
       </c>
-      <c r="I10" s="3">
-        <f>2*PI()*SQRT(I9^3/B3)/60</f>
+      <c r="I11" s="3">
+        <f>2*PI()*SQRT(I10^3/B3)/60</f>
         <v>632.03528622981901</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>1.08262668E-3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <f>C5</f>
         <v>108210000000</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3">
-        <f>((-3/2)*D3^2/((G9*(1-G7^2))^2)*B11*(2*PI()/(G10*60))*COS(RADIANS(G8)))*B12*B13</f>
+      <c r="G12" s="3">
+        <f>((-3/2)*D3^2/((G10*(1-G7^2))^2)*B12*(2*PI()/(G11*60))*COS(RADIANS(G8)))*B13*B14</f>
         <v>-8.7094908387929912</v>
       </c>
-      <c r="H11" s="6">
-        <f>((-3/2)*D3^2/((H9*(1-H7^2))^2)*B11*(2*PI()/(H10*60))*COS(RADIANS(H8)))*B12*B13</f>
+      <c r="H12" s="6">
+        <f>((-3/2)*D3^2/((H10*(1-H7^2))^2)*B12*(2*PI()/(H11*60))*COS(RADIANS(H8)))*B13*B14</f>
         <v>-1.341410430880031E-2</v>
       </c>
-      <c r="I11" s="6">
-        <f>((-3/2)*D3^2/((I9*(1-I7^2))^2)*B11*(2*PI()/(I10*60))*COS(RADIANS(I8)))*B12*B13</f>
+      <c r="I12" s="6">
+        <f>((-3/2)*D3^2/((I10*(1-I7^2))^2)*B12*(2*PI()/(I11*60))*COS(RADIANS(I8)))*B13*B14</f>
         <v>-0.41290874566633368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12">
-        <v>86400</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3">
-        <f>D11/B14</f>
-        <v>0.72332887700534765</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <f>B12/(G10*60)</f>
-        <v>16.088499719622035</v>
-      </c>
-      <c r="H12">
-        <f>B12/(H10*60)</f>
-        <v>1.0027390734977257</v>
-      </c>
-      <c r="I12">
-        <f>B12/(I10*60)</f>
-        <v>2.2783538061455495</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>86400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D12/B15</f>
+        <v>0.72332887700534765</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <f>B13/(G11*60)</f>
+        <v>16.088499719622035</v>
+      </c>
+      <c r="H13">
+        <f>B13/(H11*60)</f>
+        <v>1.0027390734977257</v>
+      </c>
+      <c r="I13">
+        <f>B13/(I11*60)</f>
+        <v>2.2783538061455495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>180/PI()</f>
         <v>57.295779513082323</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>6.7200000000000003E-3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <f>SQRT(2*B3)*SQRT((G5*G6)/(G5+G6))</f>
         <v>51400178370.419357</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <f>SQRT(2*B3)*SQRT((H5*H6)/(H5+H6))</f>
         <v>129640439818.42905</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <f>SQRT(2*B3)*SQRT((I5*I6)/(I5+I6))</f>
         <v>67573389253.528755</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5">
         <v>149600000000</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="3">
-        <f>(2*PI()*SQRT(D11^3/B2)/(3600*24))/365.25</f>
+      <c r="D15" s="3">
+        <f>(2*PI()*SQRT(D12^3/B2)/(3600*24))/365.25</f>
         <v>0.61520687455425493</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <f>G13/G5</f>
+      <c r="G15" s="3">
+        <f>G14/G5</f>
         <v>7754.8454973726939</v>
       </c>
-      <c r="H14" s="3">
-        <f>H13/H5</f>
+      <c r="H15" s="3">
+        <f>H14/H5</f>
         <v>3074.6612890103511</v>
       </c>
-      <c r="I14" s="3">
-        <f>I13/I5</f>
+      <c r="I15" s="3">
+        <f>I14/I5</f>
         <v>10194.929473173042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="12">
-        <f>D12*(1+D13)</f>
-        <v>0.72818964705882361</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <f>G13/G6</f>
-        <v>7754.8454973726939</v>
-      </c>
-      <c r="H15" s="3">
-        <f>H13/H6</f>
-        <v>3074.6612890103511</v>
-      </c>
-      <c r="I15" s="3">
-        <f>I13/I6</f>
-        <v>1602.6271153973519</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="12">
-        <f>D12*(1-D13)</f>
+        <f>D13*(1+D14)</f>
+        <v>0.72818964705882361</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <f>G14/G6</f>
+        <v>7754.8454973726939</v>
+      </c>
+      <c r="H16" s="3">
+        <f>H14/H6</f>
+        <v>3074.6612890103511</v>
+      </c>
+      <c r="I16" s="3">
+        <f>I14/I6</f>
+        <v>1602.6271153973519</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="12">
+        <f>D13*(1-D14)</f>
         <v>0.7184681069518718</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F17" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
       <c r="F18" s="32" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="G18" s="32"/>
-      <c r="H18" s="32" t="s">
-        <v>144</v>
-      </c>
+      <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="3">
-        <v>300</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <f>C3</f>
         <v>149600000000</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="3">
-        <f>G19*1000+D3</f>
-        <v>6678137</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G21" s="3">
+        <f>G20*1000+D10</f>
+        <v>1837400</v>
+      </c>
+      <c r="H21" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <f>C4</f>
         <v>227900000000</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <v>36000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <f>SQRT(B3/G20)</f>
-        <v>7725.7602320771366</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="5">
-        <f>SQRT(2*B2)*SQRT((I19*I20)/(I19+I20))</f>
-        <v>4896100189417301</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="3">
-        <f>K19*1000+D4</f>
-        <v>3696000</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3">
-        <f>SQRT(2)*G21</f>
-        <v>10925.874899846198</v>
+        <f>SQRT(B10/G21)</f>
+        <v>1633.50412915419</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <f>I21/I19</f>
-        <v>32727.942442629017</v>
+        <v>9</v>
+      </c>
+      <c r="I22" s="5">
+        <f>SQRT(2*B2)*SQRT((I20*I21)/(I20+I21))</f>
+        <v>4896100189417301</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="3">
         <f>K20*1000+D4</f>
+        <v>3696000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="3">
+        <f>SQRT(2)*G22</f>
+        <v>2310.1236936423074</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <f>I22/I20</f>
+        <v>32727.942442629017</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3">
+        <f>K21*1000+D4</f>
         <v>39396000</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="3">
-        <f>I22-E3</f>
-        <v>2943.4625787463483</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <f>I21/I20</f>
-        <v>21483.546245797723</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="6">
-        <f>(K22-K21)/(K22+K21)</f>
-        <v>0.82846003898635479</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G24" s="3">
-        <f>SQRT(G22^2+G23^2)</f>
-        <v>11315.419315233938</v>
+        <f>I23-E3</f>
+        <v>2943.4625787463483</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <f>I22/I21</f>
+        <v>21483.546245797723</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="3">
-        <f>SQRT(B4*(1+K23)/K21)</f>
-        <v>4603.0164646209969</v>
+        <v>3</v>
+      </c>
+      <c r="K24" s="6">
+        <f>(K23-K22)/(K23+K22)</f>
+        <v>0.82846003898635479</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="3">
+        <f>SQRT(G23^2+G24^2)</f>
+        <v>3741.7433680582208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="3">
+        <f>SQRT(B4*(1+K24)/K22)</f>
+        <v>4603.0164646209969</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f>676+145+93+388+673</f>
+        <v>1975</v>
+      </c>
+      <c r="F26" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="3">
-        <f>G24-G21</f>
-        <v>3589.659083156801</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="G26" s="3">
+        <f>G25-G22</f>
+        <v>2108.2392389040306</v>
+      </c>
+      <c r="J26" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K26" s="3">
         <f>SQRT(B2/C4)*(1-SQRT(2*C3/(C3+C4)))</f>
         <v>2647.9168707577678</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="J26" t="s">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="3">
+        <f>G26+K27</f>
+        <v>2883.7217400237669</v>
+      </c>
+      <c r="J27" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="3">
-        <f>K25*SQRT((1-K23)/2)</f>
+      <c r="K27" s="3">
+        <f>K26*SQRT((1-K24)/2)</f>
         <v>775.48250111973618</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2162,7 +2192,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E7" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -2201,7 +2231,7 @@
         <v>17.89</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="3">
         <f>(F9*C3)/1000000</f>
@@ -2217,7 +2247,7 @@
         <v>25.77</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="3">
         <f>((F11*F13^2)/2)/1000000</f>
@@ -2258,7 +2288,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -2314,7 +2344,7 @@
         <v>2407050</v>
       </c>
       <c r="I16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2351,7 +2381,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18">
         <v>30000</v>
@@ -2538,7 +2568,7 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
@@ -2547,7 +2577,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>273.14999999999998</v>
@@ -2564,19 +2594,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2">
         <v>5.6703669999999997E-8</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="6">
         <f>B3*D3^4</f>
@@ -2585,19 +2615,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="22">
         <v>2.897771955E-3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="6">
         <f>B3*D4^4</f>
@@ -2606,20 +2636,20 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="25">
         <v>5780</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5">
         <f>D3-B2</f>
         <v>84.850000000000023</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="6">
         <f>F3-F4</f>
@@ -2628,20 +2658,20 @@
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="25">
         <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6">
         <f>D4-B2</f>
         <v>-233.14999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="6">
         <f>(B4/D3)*1000000000</f>
@@ -2650,13 +2680,13 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="27">
         <v>695000000</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
@@ -2665,7 +2695,7 @@
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="27">
         <v>6370000</v>
@@ -2678,28 +2708,28 @@
         <v>66</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="27">
         <v>147000000000</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="28">
         <v>700</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="26">
         <f>POWER(SUM(F24:F27)/F28,0.25)</f>
@@ -2713,20 +2743,20 @@
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="27">
         <v>5.6699999999999998E-8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="27">
         <f>D9*1000</f>
         <v>700000</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="26">
         <f>POWER(SUM(F26:F28)/F28,0.25)</f>
@@ -2740,13 +2770,13 @@
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="26">
         <v>0.34</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="25">
         <v>0.6</v>
@@ -2754,7 +2784,7 @@
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="25">
         <v>0.9</v>
@@ -2762,7 +2792,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="25">
         <v>700</v>
@@ -2770,16 +2800,16 @@
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -2792,7 +2822,7 @@
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="25">
         <v>1</v>
@@ -2803,7 +2833,7 @@
     </row>
     <row r="17" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="25">
         <v>4</v>
@@ -2815,13 +2845,13 @@
     </row>
     <row r="18" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="38"/>
     </row>
     <row r="19" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="25">
         <f>D16*E16+D17*E17</f>
@@ -2830,7 +2860,7 @@
     </row>
     <row r="20" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C20" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="25">
         <f>D16*E16+D17*E17</f>
@@ -2842,7 +2872,7 @@
     </row>
     <row r="21" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="25">
         <f>D15*E15</f>
@@ -2851,7 +2881,7 @@
     </row>
     <row r="22" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C22" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="25">
         <v>6</v>
@@ -2859,7 +2889,7 @@
     </row>
     <row r="23" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
@@ -2867,14 +2897,14 @@
     </row>
     <row r="24" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="27">
         <f>4*PI()*POWER(B7,2)*B10*POWER(B5,4)</f>
         <v>3.8412616089382957E+26</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" s="26">
         <f>D21*D11*D26</f>
@@ -2883,14 +2913,14 @@
     </row>
     <row r="25" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="27">
         <f>4*PI()*POWER(B8,2)*B10*POWER(B6,4)</f>
         <v>1.222453953230281E+17</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="26">
         <f>D19*D11*D29</f>
@@ -2899,14 +2929,14 @@
     </row>
     <row r="26" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="26">
         <f>D24/(4*PI()*POWER(B9,2))</f>
         <v>1414.5859891055968</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="26">
         <f>D20*D12*D31</f>
@@ -2915,14 +2945,14 @@
     </row>
     <row r="27" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="27">
         <f>D26*PI()*POWER(B8,2)*B11</f>
         <v>6.1310803347109584E+16</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" s="25">
         <f>D13</f>
@@ -2931,14 +2961,14 @@
     </row>
     <row r="28" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="26">
         <f>D27/(PI()*POWER(B8,2))</f>
         <v>480.959236295903</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" s="27">
         <f>D22*D12*B10</f>
@@ -2947,7 +2977,7 @@
     </row>
     <row r="29" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="26">
         <f>D28*(1-SQRT(1-POWER(B8,2)/POWER(B8+D10,2)))</f>
@@ -2958,7 +2988,7 @@
     </row>
     <row r="30" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="26">
         <f>D25/(4*PI()*POWER(B8,2))</f>
@@ -2969,7 +2999,7 @@
     </row>
     <row r="31" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="26">
         <f>D30*(1-SQRT(1-POWER(B8,2)/POWER(B8+D10,2)))</f>
@@ -3031,11 +3061,11 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F1" s="32"/>
     </row>
@@ -3053,7 +3083,7 @@
         <v>28.05</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2">
         <v>0.6</v>
@@ -3067,13 +3097,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3">
         <v>-0.6</v>
@@ -3081,7 +3111,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4">
         <v>6378137</v>
@@ -3093,7 +3123,7 @@
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -3101,13 +3131,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5">
         <v>23.45</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="3">
         <f>B4+D4*1000</f>
@@ -3116,7 +3146,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6">
         <f>180/PI()</f>
@@ -3129,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="31">
         <f>ASIN(F2*SIN(RADIANS(D2))-F3*COS(RADIANS(B5))*SIN(RADIANS(D2))+F4*SIN(RADIANS(B5))*COS(RADIANS(D2)))</f>
@@ -3149,19 +3179,19 @@
         <v>6878137</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="11">
         <f>2*PI()/(365.25*86400)</f>
         <v>1.991021277657232E-7</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8">
         <f>ASIN(SQRT(1/COS(F6)^2)*((B4/(B4+D5))^2)-SIN(F6)^2)</f>
@@ -3174,14 +3204,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="5">
         <f>-3/2*B3*(B4/D7)^2*SQRT(B2/D7^3)*COS(RADIANS(D2))</f>
         <v>-1.36068210211513E-6</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9">
         <f>2*(PI()-ABS(F8))</f>
@@ -3190,7 +3220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="32"/>
     </row>
@@ -3228,7 +3258,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="30">
         <f>D14*D13*D12</f>
@@ -3237,7 +3267,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="30">
         <f>D15*24</f>
@@ -3246,7 +3276,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="30"/>
     </row>
@@ -3396,7 +3426,7 @@
         <v>0.31652065386689116</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8">
         <f>D4/(D7^2)</f>
@@ -3854,12 +3884,12 @@
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D31">
         <v>6371000</v>
@@ -3869,7 +3899,7 @@
         <v>6370999.9500000002</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G31">
         <f>D32-E32</f>
@@ -3898,7 +3928,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D33">
         <f>D32*B3</f>
@@ -3909,7 +3939,7 @@
         <v>2.924658606624832E+24</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33">
         <f>(G31/(4/3*PI()))^(1/3)</f>
@@ -3918,7 +3948,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G34">
         <f>G33/1000</f>
@@ -3956,7 +3986,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="19">
         <v>1000</v>
@@ -3984,7 +4014,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="19">
         <f>B1</f>
@@ -4003,7 +4033,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>50000</v>
@@ -4030,7 +4060,7 @@
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="19">
         <f>B4*(B2+B1)</f>
@@ -4045,13 +4075,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <f>25*12</f>
@@ -4061,10 +4091,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -4072,7 +4102,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -4080,7 +4110,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9">
         <f>SUM(D7:D8)</f>
@@ -4090,7 +4120,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <f>10/12</f>
@@ -4100,7 +4130,7 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <f>(D6-D9)*D10</f>
@@ -4111,7 +4141,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12">
         <f>D5*3</f>
@@ -4122,7 +4152,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13">
         <f>D12/D11</f>
@@ -4145,7 +4175,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14">
         <f>D13*12</f>
@@ -4156,7 +4186,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15">
         <f>D13/12</f>
@@ -4167,7 +4197,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="19">
         <f>D15/30*1000000</f>
@@ -4179,7 +4209,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="19">
         <f>D16*7</f>
@@ -4192,7 +4222,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="21">
         <f>D12*1000000/D17</f>
